--- a/Excel for CompSci.xlsx
+++ b/Excel for CompSci.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A30253-1455-4A29-A2DA-50A318DA2752}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B34A71-DB85-42C9-919E-F8D6A7644348}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E4F657F4-C72D-43DC-93EE-2F404BD8C927}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="84">
   <si>
     <t>Value</t>
   </si>
@@ -87,6 +87,9 @@
     <t>0,0,100</t>
   </si>
   <si>
+    <t>0,0,110</t>
+  </si>
+  <si>
     <t>0,0,120</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>0,90,0</t>
   </si>
   <si>
+    <t>0,110,0</t>
+  </si>
+  <si>
     <t>0,120,0</t>
   </si>
   <si>
@@ -168,6 +174,9 @@
     <t>100,75,0</t>
   </si>
   <si>
+    <t>110,85,0</t>
+  </si>
+  <si>
     <t>120,95,0</t>
   </si>
   <si>
@@ -189,7 +198,7 @@
     <t>105,180,0</t>
   </si>
   <si>
-    <t>125,190,0</t>
+    <t>115,190,0</t>
   </si>
   <si>
     <t>125,200,0</t>
@@ -264,10 +273,10 @@
     <t>0,240,0</t>
   </si>
   <si>
-    <t>120,85,0</t>
-  </si>
-  <si>
     <t>140,125,0</t>
+  </si>
+  <si>
+    <t>0,0,130</t>
   </si>
 </sst>
 </file>
@@ -627,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB038F0D-0F26-4463-9F0C-580DE646F59D}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +727,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -729,7 +738,7 @@
         <v>0.08</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -740,7 +749,7 @@
         <v>0.09</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -751,7 +760,7 @@
         <v>0.1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
@@ -762,7 +771,7 @@
         <v>0.12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
@@ -773,7 +782,7 @@
         <v>0.12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -784,7 +793,7 @@
         <v>0.13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -795,7 +804,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
@@ -817,7 +826,7 @@
         <v>0.16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>4</v>
@@ -828,7 +837,7 @@
         <v>0.17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
@@ -839,7 +848,7 @@
         <v>0.18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -850,7 +859,7 @@
         <v>0.19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>4</v>
@@ -861,7 +870,7 @@
         <v>0.2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
@@ -872,7 +881,7 @@
         <v>0.21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>5</v>
@@ -883,7 +892,7 @@
         <v>0.22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>5</v>
@@ -894,7 +903,7 @@
         <v>0.23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>5</v>
@@ -905,7 +914,7 @@
         <v>0.24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
@@ -971,7 +980,7 @@
         <v>0.3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -982,7 +991,7 @@
         <v>0.31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -993,7 +1002,7 @@
         <v>0.32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1004,7 +1013,7 @@
         <v>0.33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>6</v>
@@ -1015,7 +1024,7 @@
         <v>0.34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>6</v>
@@ -1026,7 +1035,7 @@
         <v>0.35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -1037,7 +1046,7 @@
         <v>0.36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -1059,7 +1068,7 @@
         <v>0.38</v>
       </c>
       <c r="B39" s="1">
-        <v>120120120</v>
+        <v>110110110</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>6</v>
@@ -1070,7 +1079,7 @@
         <v>0.39</v>
       </c>
       <c r="B40" s="1">
-        <v>130130130</v>
+        <v>120120120</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -1081,7 +1090,7 @@
         <v>0.4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
@@ -1092,7 +1101,7 @@
         <v>0.41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
@@ -1103,7 +1112,7 @@
         <v>0.42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
@@ -1114,7 +1123,7 @@
         <v>0.43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
@@ -1125,7 +1134,7 @@
         <v>0.44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
@@ -1136,7 +1145,7 @@
         <v>0.45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
@@ -1147,7 +1156,7 @@
         <v>0.46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
@@ -1158,7 +1167,7 @@
         <v>0.47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
@@ -1169,7 +1178,7 @@
         <v>0.48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
@@ -1180,7 +1189,7 @@
         <v>0.49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
@@ -1191,7 +1200,7 @@
         <v>0.5</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>8</v>
@@ -1202,7 +1211,7 @@
         <v>0.51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>8</v>
@@ -1213,7 +1222,7 @@
         <v>0.52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>8</v>
@@ -1224,7 +1233,7 @@
         <v>0.53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>8</v>
@@ -1235,7 +1244,7 @@
         <v>0.54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
@@ -1246,7 +1255,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
@@ -1257,7 +1266,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
@@ -1268,7 +1277,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -1279,7 +1288,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
@@ -1290,7 +1299,7 @@
         <v>0.59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
@@ -1301,7 +1310,7 @@
         <v>0.6</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1312,7 +1321,7 @@
         <v>0.61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
@@ -1323,7 +1332,7 @@
         <v>0.62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
@@ -1334,7 +1343,7 @@
         <v>0.63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
@@ -1345,7 +1354,7 @@
         <v>0.64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1356,7 +1365,7 @@
         <v>0.65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1367,7 +1376,7 @@
         <v>0.66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
@@ -1378,7 +1387,7 @@
         <v>0.67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -1389,7 +1398,7 @@
         <v>0.68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
@@ -1400,7 +1409,7 @@
         <v>0.69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -1411,7 +1420,7 @@
         <v>0.7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
@@ -1422,7 +1431,7 @@
         <v>0.71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>10</v>
@@ -1433,7 +1442,7 @@
         <v>0.72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>10</v>
@@ -1444,7 +1453,7 @@
         <v>0.73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>10</v>
@@ -1455,7 +1464,7 @@
         <v>0.74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>10</v>
@@ -1466,7 +1475,7 @@
         <v>0.75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
@@ -1477,7 +1486,7 @@
         <v>0.76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
@@ -1488,7 +1497,7 @@
         <v>0.77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>10</v>
@@ -1499,7 +1508,7 @@
         <v>0.78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>10</v>
@@ -1510,7 +1519,7 @@
         <v>0.79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>10</v>
